--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -46,27 +46,27 @@
     <t>Jewel</t>
   </si>
   <si>
+    <t>Khushi</t>
+  </si>
+  <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Khushi</t>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Kellie</t>
   </si>
   <si>
     <t>Shaniek</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
+    <t>Lori</t>
   </si>
   <si>
     <t>Tina</t>
   </si>
   <si>
-    <t>Lori</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -91,13 +91,13 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Matthew</t>
-  </si>
-  <si>
-    <t>Brennan</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
   </si>
   <si>
     <t>Myles</t>
@@ -528,7 +528,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.36634985893487</v>
+        <v>13.41179440177212</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -554,7 +554,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.17384225672477</v>
+        <v>13.28345529631224</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -580,7 +580,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.435522967461472</v>
+        <v>8.23763560135623</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -606,10 +606,10 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.34383967621485</v>
+        <v>8.166612813012238</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -632,10 +632,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.278735030595699</v>
+        <v>8.005597717419404</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -658,7 +658,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.435857524273124</v>
+        <v>5.361927025870195</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -675,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -684,10 +684,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.192148305431918</v>
+        <v>5.237683582040133</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -710,10 +710,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.114808149099144</v>
+        <v>5.010962683506764</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -736,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.127572857403828</v>
+        <v>4.477479880056773</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -762,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.076664184514845</v>
+        <v>4.389849861394186</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -788,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.239981183095495</v>
+        <v>2.382527936458554</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -814,7 +814,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.379916767955251</v>
+        <v>1.029173221199296</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -840,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="F14">
-        <v>14.13193457363825</v>
+        <v>14.2745467615059</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -866,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="F15">
-        <v>13.24852036377619</v>
+        <v>13.07194186949775</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="F16">
-        <v>8.019993989997438</v>
+        <v>8.189927172263737</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -918,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="F17">
-        <v>7.17488654104628</v>
+        <v>7.39607034879652</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -944,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="F18">
-        <v>6.126027957762686</v>
+        <v>6.323612713011084</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -970,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="F19">
-        <v>6.047255851061288</v>
+        <v>6.252130279629233</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -987,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="F20">
-        <v>5.369492967572572</v>
+        <v>5.331365905335693</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1022,10 +1022,10 @@
         <v>32</v>
       </c>
       <c r="F21">
-        <v>5.165260742633402</v>
+        <v>5.299930968965304</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1048,10 +1048,10 @@
         <v>32</v>
       </c>
       <c r="F22">
-        <v>5.046126320341567</v>
+        <v>5.024612660958182</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>9</v>
@@ -1074,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="F23">
-        <v>3.453319444307983</v>
+        <v>3.207723512647401</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -1100,7 +1100,7 @@
         <v>32</v>
       </c>
       <c r="F24">
-        <v>1.138808340842022</v>
+        <v>1.345698146888841</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -1126,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="F25">
-        <v>0.1517588624201327</v>
+        <v>0.1471275131748038</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>level_0</t>
   </si>
@@ -22,6 +22,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -37,10 +40,85 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
+    <t>6077db0613ce87b4a62a78f9</t>
+  </si>
+  <si>
+    <t>60bfcf5805c5ae12a546f9f3</t>
+  </si>
+  <si>
+    <t>60c0e5899d387663c07eb3a4</t>
+  </si>
+  <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
+    <t>601d69a993d94008fb2b25dc</t>
+  </si>
+  <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>60b091ed11ccda59e3fc7761</t>
+  </si>
+  <si>
+    <t>6088fc724afd5c008db33e9d</t>
+  </si>
+  <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Annes</t>
+    <t>Bri</t>
   </si>
   <si>
     <t>Jewel</t>
@@ -49,24 +127,21 @@
     <t>Khushi</t>
   </si>
   <si>
-    <t>Bri</t>
+    <t>Shaniek</t>
+  </si>
+  <si>
+    <t>Kellie</t>
   </si>
   <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
+    <t>Tina</t>
   </si>
   <si>
     <t>Lori</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -85,12 +160,12 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Drew</t>
+  </si>
+  <si>
     <t>Eli</t>
   </si>
   <si>
-    <t>Drew</t>
-  </si>
-  <si>
     <t>Brennan</t>
   </si>
   <si>
@@ -115,10 +190,10 @@
     <t>male</t>
   </si>
   <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -482,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +585,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -519,25 +597,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>13.41179440177212</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>13.44015278694422</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -545,25 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>13.28345529631224</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>13.26073009200145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -571,25 +655,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>8.23763560135623</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>8.354532088468041</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -597,25 +684,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>8.166612813012238</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>8.098102820749885</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -623,25 +713,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>8.005597717419404</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>8.097338185867613</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -649,25 +742,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>5.361927025870195</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>5.483549169353528</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -678,22 +774,25 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>5.237683582040133</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>5.36924149709817</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -701,25 +800,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>5.010962683506764</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>5.049422940202584</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -727,25 +829,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>4.477479880056773</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>4.105146646021751</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -753,25 +858,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>4.389849861394186</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>4.050914323979571</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -782,22 +890,25 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>2.382527936458554</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>2.435214467044919</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -808,22 +919,25 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>1.029173221199296</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>1.191712437135525</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -834,22 +948,25 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>14.2745467615059</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>14.40027434213815</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -860,22 +977,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>13.07194186949775</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>13.3019045588994</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -886,22 +1006,25 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>8.189927172263737</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>8.361239919308625</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -912,22 +1035,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>7.39607034879652</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>7.001638653657909</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -935,25 +1061,28 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>6.323612713011084</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>6.38247157770629</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -961,25 +1090,28 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>6.252130279629233</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>6.166501710522055</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -990,22 +1122,25 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>5.331365905335693</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>5.482491394747845</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1016,22 +1151,25 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21">
-        <v>5.299930968965304</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21">
+        <v>5.47701608724167</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1042,22 +1180,25 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22">
-        <v>5.024612660958182</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22">
+        <v>5.11301045113269</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1068,22 +1209,25 @@
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <v>3.207723512647401</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>3.317147241751798</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1094,22 +1238,25 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>1.345698146888841</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>1.019206744813832</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1120,18 +1267,21 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25">
-        <v>0.1471275131748038</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>0.2975636940466398</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25">
         <v>12</v>
       </c>
     </row>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -40,10 +40,13 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
@@ -52,9 +55,6 @@
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
@@ -112,10 +112,13 @@
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Khushi</t>
   </si>
   <si>
     <t>Bri</t>
@@ -124,9 +127,6 @@
     <t>Jewel</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
     <t>Shaniek</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Jamarii</t>
-  </si>
-  <si>
     <t>Matthew</t>
   </si>
   <si>
@@ -190,10 +190,10 @@
     <t>male</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>13.44015278694422</v>
+        <v>13.42119510329043</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>13.26073009200145</v>
+        <v>13.17773416771519</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.354532088468041</v>
+        <v>8.277947983434146</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.098102820749885</v>
+        <v>8.218874334828817</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>8.097338185867613</v>
+        <v>8.21192345112825</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>5.483549169353528</v>
+        <v>5.441970684512863</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -783,10 +783,10 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>5.36924149709817</v>
+        <v>5.381459162249058</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>5.049422940202584</v>
+        <v>5.321845954194636</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -841,10 +841,10 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4.105146646021751</v>
+        <v>4.498467056693604</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -870,10 +870,10 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>4.050914323979571</v>
+        <v>4.222996349665409</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -899,10 +899,10 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.435214467044919</v>
+        <v>2.390791975163696</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.191712437135525</v>
+        <v>1.089220531548616</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -957,10 +957,10 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>14.40027434213815</v>
+        <v>14.11239547175637</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>13.3019045588994</v>
+        <v>13.09487473480318</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>8.361239919308625</v>
+        <v>8.22111200880744</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.001638653657909</v>
+        <v>7.429121582096163</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1073,10 +1073,10 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.38247157770629</v>
+        <v>6.324528075904071</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1102,10 +1102,10 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.166501710522055</v>
+        <v>6.243826188088984</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.482491394747845</v>
+        <v>5.27722767756892</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,10 +1160,10 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.47701608724167</v>
+        <v>5.186042016282854</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1189,10 +1189,10 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.11301045113269</v>
+        <v>5.141087836715284</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.317147241751798</v>
+        <v>3.417079858592328</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.019206744813832</v>
+        <v>1.153463192899035</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.2975636940466398</v>
+        <v>0.3269558257719956</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -58,12 +58,12 @@
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60c2341fe95d71ee52c043f0</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Shaniek</t>
   </si>
   <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -166,13 +166,13 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Matthew</t>
   </si>
   <si>
     <t>Myles</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>13.42119510329043</v>
+        <v>13.25581603006527</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>13.17773416771519</v>
+        <v>13.03564410204013</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -667,7 +667,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.277947983434146</v>
+        <v>8.387878449008936</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.218874334828817</v>
+        <v>8.356292063322577</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>8.21192345112825</v>
+        <v>8.180015286402934</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>5.441970684512863</v>
+        <v>5.393336665672788</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -783,10 +783,10 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>5.381459162249058</v>
+        <v>5.339669197139461</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -812,10 +812,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>5.321845954194636</v>
+        <v>5.108019693417147</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4.498467056693604</v>
+        <v>4.268640122598316</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -870,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>4.222996349665409</v>
+        <v>4.254495598246366</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.390791975163696</v>
+        <v>2.420025270519735</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.089220531548616</v>
+        <v>1.496024677253027</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>14.11239547175637</v>
+        <v>14.35604799398173</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>13.09487473480318</v>
+        <v>13.17756464437572</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>8.22111200880744</v>
+        <v>8.158367614863963</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.429121582096163</v>
+        <v>7.132419507397405</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.324528075904071</v>
+        <v>6.306267974076017</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.243826188088984</v>
+        <v>6.305467982787811</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.27722767756892</v>
+        <v>5.443833869706829</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,10 +1160,10 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.186042016282854</v>
+        <v>5.210446373867417</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.141087836715284</v>
+        <v>5.049269166493271</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.417079858592328</v>
+        <v>3.295791998891051</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.153463192899035</v>
+        <v>1.043195326962711</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.3269558257719956</v>
+        <v>0.2516358054655306</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -43,15 +43,15 @@
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
+    <t>60b1742bce2b39e0f1d19a1a</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
-    <t>60b1742bce2b39e0f1d19a1a</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
@@ -82,27 +82,27 @@
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
+    <t>60ba8ba51a5e0a105396888a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>60ba8ba51a5e0a105396888a</t>
-  </si>
-  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
+    <t>5e35d91ea42bce592e996843</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
-    <t>5e35d91ea42bce592e996843</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>Ankai</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Maggie</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
@@ -154,25 +154,25 @@
     <t>Mary</t>
   </si>
   <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
     <t>Valeria</t>
-  </si>
-  <si>
-    <t>Katherine</t>
-  </si>
-  <si>
-    <t>Sergio</t>
   </si>
   <si>
     <t>Josue</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>14.0545460118045</v>
+        <v>14.36475064273752</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>13.36895208135014</v>
+        <v>13.4427811560038</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>13.06452088572613</v>
+        <v>13.32257368402617</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>13.00660968671283</v>
+        <v>13.02548504840682</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>12.47304481496769</v>
+        <v>12.16366162123603</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>10.33809696990802</v>
+        <v>10.35758251781631</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>10.20315367884972</v>
+        <v>10.23661900101856</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>8.103906197368788</v>
+        <v>8.201924197465678</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.074991964361302</v>
+        <v>5.441561929436489</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>2.409855441788246</v>
+        <v>2.330660576781288</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.322034524266674</v>
+        <v>2.005372734962068</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>1.095248863028851</v>
+        <v>1.34066941120993</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>15.43818142863585</v>
+        <v>15.02328293437414</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>11.23501533498133</v>
+        <v>11.12005548300506</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16">
-        <v>10.30985422106445</v>
+        <v>10.3560449567461</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1035,10 +1035,10 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17">
-        <v>10.19954897833762</v>
+        <v>10.15590669353794</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>9.162027534945004</v>
+        <v>9.075645813370125</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>7.452131028775719</v>
+        <v>7.229575176107406</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1113,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.443032210510179</v>
+        <v>5.144726965691964</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1151,10 +1151,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>5.136008198154887</v>
+        <v>5.106254872490608</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1180,10 +1180,10 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>5.00567048284817</v>
+        <v>5.051234491524045</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
       <c r="G23">
-        <v>4.23696972782974</v>
+        <v>4.078136080597864</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="G24">
-        <v>3.488769134001832</v>
+        <v>3.427904729701768</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>3.260736716689629</v>
+        <v>3.301880844181574</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -46,12 +46,12 @@
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>60b1742bce2b39e0f1d19a1a</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
@@ -94,36 +94,36 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5f0142aa1eb1e528e7abce50</t>
+  </si>
+  <si>
     <t>6024c18b094ac71dd93f4f5a</t>
   </si>
   <si>
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
+    <t>5f5ea8227fa75676f56f9276</t>
+  </si>
+  <si>
     <t>5e58b3e415b8d40b5e1dabf1</t>
   </si>
   <si>
-    <t>5f5ea8227fa75676f56f9276</t>
-  </si>
-  <si>
     <t>Ankai</t>
   </si>
   <si>
     <t>Maggie</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Sabrina</t>
   </si>
   <si>
-    <t>Annes</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
@@ -166,22 +166,22 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Valeria</t>
+  </si>
+  <si>
     <t>Katherine</t>
   </si>
   <si>
     <t>Sergio</t>
   </si>
   <si>
-    <t>Valeria</t>
-  </si>
-  <si>
     <t>Josue</t>
   </si>
   <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t>Cristian</t>
-  </si>
-  <si>
-    <t>Carlos</t>
   </si>
   <si>
     <t>male</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>14.36475064273752</v>
+        <v>14.09110926329862</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>13.4427811560038</v>
+        <v>13.45595228309568</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>13.32257368402617</v>
+        <v>13.21138131302576</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>13.02548504840682</v>
+        <v>13.05510090847672</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>12.16366162123603</v>
+        <v>12.11138011880338</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>10.35758251781631</v>
+        <v>10.38169935728711</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>10.23661900101856</v>
+        <v>10.3148949458874</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>8.201924197465678</v>
+        <v>8.206853693142603</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.441561929436489</v>
+        <v>5.433954494785023</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>2.330660576781288</v>
+        <v>2.475607795998219</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.005372734962068</v>
+        <v>2.127299389597505</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>1.34066941120993</v>
+        <v>1.091413571818724</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>15.02328293437414</v>
+        <v>15.27723972558881</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>11.12005548300506</v>
+        <v>11.39595057741476</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1009,7 +1009,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>10.3560449567461</v>
+        <v>10.31711759769929</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1038,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>10.15590669353794</v>
+        <v>10.3121989301421</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>9.075645813370125</v>
+        <v>9.088823182096167</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>7.229575176107406</v>
+        <v>7.098664369738172</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1113,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.144726965691964</v>
+        <v>5.157963932580735</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1151,10 +1151,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21">
-        <v>5.106254872490608</v>
+        <v>5.149789558972145</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1180,10 +1180,10 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22">
-        <v>5.051234491524045</v>
+        <v>5.03927231484428</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
       <c r="G23">
-        <v>4.078136080597864</v>
+        <v>4.019746017647258</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="G24">
-        <v>3.427904729701768</v>
+        <v>3.287064503394289</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1270,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>3.301880844181574</v>
+        <v>3.03661984727283</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -49,27 +49,27 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
+    <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
-    <t>6077db0613ce87b4a62a78f9</t>
-  </si>
-  <si>
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -121,27 +121,27 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Jewel</t>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
   </si>
   <si>
     <t>Shaniek</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
+    <t>Lori</t>
   </si>
   <si>
     <t>Tina</t>
   </si>
   <si>
-    <t>Lori</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -169,10 +169,10 @@
     <t>Matthew</t>
   </si>
   <si>
+    <t>Brennan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Brennan</t>
   </si>
   <si>
     <t>Myles</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>13.25581603006527</v>
+        <v>13.37383182294894</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>13.03564410204013</v>
+        <v>13.16250246588412</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -667,7 +667,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.387878449008936</v>
+        <v>8.396910801783761</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.356292063322577</v>
+        <v>8.390562821666926</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>8.180015286402934</v>
+        <v>8.284137808845447</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -754,10 +754,10 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>5.393336665672788</v>
+        <v>5.499920003737663</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>5.339669197139461</v>
+        <v>5.496086788842061</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -812,10 +812,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>5.108019693417147</v>
+        <v>5.062422754775289</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4.268640122598316</v>
+        <v>4.244814854093466</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>4.254495598246366</v>
+        <v>4.079969157910064</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.420025270519735</v>
+        <v>2.218831050136576</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.496024677253027</v>
+        <v>1.453411958882284</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>14.35604799398173</v>
+        <v>14.36820170540361</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>13.17756464437572</v>
+        <v>13.10445131131576</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>8.158367614863963</v>
+        <v>8.165085299637123</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.132419507397405</v>
+        <v>7.471687554102642</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.306267974076017</v>
+        <v>6.394477316427598</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.305467982787811</v>
+        <v>6.210208915507454</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1131,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.443833869706829</v>
+        <v>5.464785281559637</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,10 +1160,10 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.210446373867417</v>
+        <v>5.311456126118004</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,10 +1189,10 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.049269166493271</v>
+        <v>5.011805588421218</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.295791998891051</v>
+        <v>3.497412773125043</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.043195326962711</v>
+        <v>1.210064642988239</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.2516358054655306</v>
+        <v>0.4333488792121737</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -43,36 +43,36 @@
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>60b1742bce2b39e0f1d19a1a</t>
+  </si>
+  <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
-    <t>60b1742bce2b39e0f1d19a1a</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5ff3974450a7199965624df7</t>
+  </si>
+  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
-    <t>5ff3974450a7199965624df7</t>
-  </si>
-  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
     <t>5697d4ae7183b8000d0fc201</t>
   </si>
   <si>
+    <t>60b76ee2219ac1ce25ccea43</t>
+  </si>
+  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
-    <t>60b76ee2219ac1ce25ccea43</t>
-  </si>
-  <si>
     <t>60863a15760523386e761cfb</t>
   </si>
   <si>
@@ -82,24 +82,24 @@
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
+    <t>60778ed0fde3e9c3a96f1d11</t>
+  </si>
+  <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>60778ed0fde3e9c3a96f1d11</t>
-  </si>
-  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
@@ -115,36 +115,36 @@
     <t>Ankai</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Maggie</t>
   </si>
   <si>
-    <t>Annes</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
+    <t>Anh</t>
+  </si>
+  <si>
     <t>Chris</t>
   </si>
   <si>
-    <t>Anh</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
     <t>Tu</t>
   </si>
   <si>
+    <t>Richie</t>
+  </si>
+  <si>
     <t>Emily</t>
   </si>
   <si>
-    <t>Richie</t>
-  </si>
-  <si>
     <t>Roshni</t>
   </si>
   <si>
@@ -154,22 +154,22 @@
     <t>Mary</t>
   </si>
   <si>
+    <t>Melissa</t>
+  </si>
+  <si>
     <t>Alfredo</t>
   </si>
   <si>
-    <t>Melissa</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Valeria</t>
-  </si>
-  <si>
-    <t>Katherine</t>
   </si>
   <si>
     <t>Sergio</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>14.09110926329862</v>
+        <v>14.4555622440282</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>13.45595228309568</v>
+        <v>13.49322534775249</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>13.21138131302576</v>
+        <v>13.0399847539705</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>13.05510090847672</v>
+        <v>13.02496522416173</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>12.11138011880338</v>
+        <v>12.06802414159128</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>10.38169935728711</v>
+        <v>10.28276308106538</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>10.3148949458874</v>
+        <v>10.06553779822961</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>8.206853693142603</v>
+        <v>8.109626341792918</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.433954494785023</v>
+        <v>5.328503579847605</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -861,10 +861,10 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11">
-        <v>2.475607795998219</v>
+        <v>2.335090669544204</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -890,10 +890,10 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>2.127299389597505</v>
+        <v>2.285979158260564</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>1.091413571818724</v>
+        <v>1.402438053655847</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>15.27723972558881</v>
+        <v>15.4707565882647</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>11.39595057741476</v>
+        <v>11.24716022619973</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16">
-        <v>10.31711759769929</v>
+        <v>10.28396858577988</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1035,10 +1035,10 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
-        <v>10.3121989301421</v>
+        <v>10.17922288895593</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>9.088823182096167</v>
+        <v>9.11564123155263</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>7.098664369738172</v>
+        <v>7.090080371342193</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1113,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.157963932580735</v>
+        <v>5.492612310008454</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1154,7 +1154,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.149789558972145</v>
+        <v>5.467819815978743</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="G22">
-        <v>5.03927231484428</v>
+        <v>5.255963789825259</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
       <c r="G23">
-        <v>4.019746017647258</v>
+        <v>4.443507100185125</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="G24">
-        <v>3.287064503394289</v>
+        <v>3.499128519851419</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>3.03661984727283</v>
+        <v>3.153071154622522</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -46,15 +46,15 @@
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
@@ -64,12 +64,12 @@
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
     <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
-    <t>5e96194b0a9fe909389e9f7b</t>
-  </si>
-  <si>
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -118,15 +118,15 @@
     <t>Annes</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Khushi</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
-    <t>Bri</t>
-  </si>
-  <si>
     <t>Kellie</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Shaniek</t>
   </si>
   <si>
+    <t>Tina</t>
+  </si>
+  <si>
     <t>Lori</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -166,13 +166,13 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
   </si>
   <si>
     <t>Myles</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>13.37383182294894</v>
+        <v>13.4562512144795</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>13.16250246588412</v>
+        <v>13.03225951465968</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.396910801783761</v>
+        <v>8.49956431831203</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.390562821666926</v>
+        <v>8.20087022370102</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>8.284137808845447</v>
+        <v>8.064168822103696</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>5.499920003737663</v>
+        <v>5.333931338090698</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>5.496086788842061</v>
+        <v>5.316202313826643</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>5.062422754775289</v>
+        <v>5.294121455295787</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4.244814854093466</v>
+        <v>4.302967855272668</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>4.079969157910064</v>
+        <v>4.23075704731449</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.218831050136576</v>
+        <v>2.016984074606204</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.453411958882284</v>
+        <v>1.054877676087834</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>14.36820170540361</v>
+        <v>14.32124806351207</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>13.10445131131576</v>
+        <v>13.25929927578149</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>8.165085299637123</v>
+        <v>8.119568600285705</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.471687554102642</v>
+        <v>7.411316600731239</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.394477316427598</v>
+        <v>6.387209556654361</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.210208915507454</v>
+        <v>6.159915716578424</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.464785281559637</v>
+        <v>5.496872041548905</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.311456126118004</v>
+        <v>5.269135301367183</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,10 +1189,10 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.011805588421218</v>
+        <v>5.262741384947466</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.497412773125043</v>
+        <v>3.214622224054206</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.210064642988239</v>
+        <v>1.200783564827204</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.4333488792121737</v>
+        <v>0.09961791273931464</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -40,30 +40,30 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>5c5882fc5bfe7600011197cb</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
-    <t>608b14a312c099ac00b721b6</t>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -112,30 +112,30 @@
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Annes</t>
+    <t>Jewel</t>
+  </si>
+  <si>
+    <t>Khushi</t>
   </si>
   <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
-    <t>Khushi</t>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
   </si>
   <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Brennan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>Brennan</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -190,10 +190,10 @@
     <t>male</t>
   </si>
   <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>13.4562512144795</v>
+        <v>13.33466479435452</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>13.03225951465968</v>
+        <v>13.28508527389088</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,7 +667,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.49956431831203</v>
+        <v>8.341848052842526</v>
       </c>
       <c r="H4" t="s">
         <v>60</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -696,10 +696,10 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.20087022370102</v>
+        <v>8.243276706149189</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>8.064168822103696</v>
+        <v>8.088597951143703</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -754,10 +754,10 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>5.333931338090698</v>
+        <v>5.495565970904949</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>5.316202313826643</v>
+        <v>5.313043414706029</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -812,10 +812,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>5.294121455295787</v>
+        <v>5.270427976346927</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -841,10 +841,10 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4.302967855272668</v>
+        <v>4.427089860512693</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -870,10 +870,10 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>4.23075704731449</v>
+        <v>4.1449432509138</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -899,10 +899,10 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.016984074606204</v>
+        <v>2.219960194385904</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.054877676087834</v>
+        <v>1.256578053837044</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -957,10 +957,10 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>14.32124806351207</v>
+        <v>14.28972879330137</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>13.25929927578149</v>
+        <v>13.42737676672315</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>8.119568600285705</v>
+        <v>8.447915419544929</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.411316600731239</v>
+        <v>7.374783189707426</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1073,10 +1073,10 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.387209556654361</v>
+        <v>6.318117057861989</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1102,10 +1102,10 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.159915716578424</v>
+        <v>6.269575784930271</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.496872041548905</v>
+        <v>5.377829192037456</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,10 +1160,10 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.269135301367183</v>
+        <v>5.220260424381992</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,10 +1189,10 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.262741384947466</v>
+        <v>5.0041670821604</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.214622224054206</v>
+        <v>3.086411040790361</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.200783564827204</v>
+        <v>1.224224424130261</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.09961791273931464</v>
+        <v>0.3847272879396543</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -46,12 +46,12 @@
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60b1742bce2b39e0f1d19a1a</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
@@ -97,33 +97,33 @@
     <t>6024c18b094ac71dd93f4f5a</t>
   </si>
   <si>
+    <t>5e35d91ea42bce592e996843</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>5e35d91ea42bce592e996843</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
+    <t>5e58b3e415b8d40b5e1dabf1</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5e58b3e415b8d40b5e1dabf1</t>
-  </si>
-  <si>
     <t>Ankai</t>
   </si>
   <si>
     <t>Annes</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Sabrina</t>
   </si>
   <si>
-    <t>Maggie</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
@@ -169,19 +169,19 @@
     <t>Katherine</t>
   </si>
   <si>
+    <t>Sergio</t>
+  </si>
+  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
     <t>Josue</t>
   </si>
   <si>
+    <t>Cristian</t>
+  </si>
+  <si>
     <t>Carlos</t>
-  </si>
-  <si>
-    <t>Cristian</t>
   </si>
   <si>
     <t>male</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>14.4555622440282</v>
+        <v>14.1030709486882</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>13.49322534775249</v>
+        <v>13.35197478321719</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>13.0399847539705</v>
+        <v>13.29676972317081</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>13.02496522416173</v>
+        <v>13.03514933185946</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>12.06802414159128</v>
+        <v>12.21026352735557</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>10.28276308106538</v>
+        <v>10.43208549230954</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>10.06553779822961</v>
+        <v>10.35892207049924</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>8.109626341792918</v>
+        <v>8.453463493118818</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.328503579847605</v>
+        <v>5.467581216082982</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>2.335090669544204</v>
+        <v>2.432689833958036</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.285979158260564</v>
+        <v>2.042059906310699</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>1.402438053655847</v>
+        <v>1.409394357364049</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>15.4707565882647</v>
+        <v>15.06243723636431</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>11.24716022619973</v>
+        <v>11.11821323711153</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1009,7 +1009,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>10.28396858577988</v>
+        <v>10.39963322479619</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1038,7 +1038,7 @@
         <v>56</v>
       </c>
       <c r="G17">
-        <v>10.17922288895593</v>
+        <v>10.36897075700516</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>9.11564123155263</v>
+        <v>9.024018483952517</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>7.090080371342193</v>
+        <v>7.460850761300989</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.492612310008454</v>
+        <v>5.43416801027872</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1151,10 +1151,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>5.467819815978743</v>
+        <v>5.41159165889617</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1180,10 +1180,10 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>5.255963789825259</v>
+        <v>5.26350506955602</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
       <c r="G23">
-        <v>4.443507100185125</v>
+        <v>4.337099675533884</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="G24">
-        <v>3.499128519851419</v>
+        <v>3.186900434483333</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1270,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>3.153071154622522</v>
+        <v>3.111826274599989</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -40,30 +40,30 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
-    <t>60c2341fe95d71ee52c043f0</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -112,30 +112,30 @@
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Khushi</t>
+  </si>
+  <si>
+    <t>Bri</t>
   </si>
   <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
-    <t>Bri</t>
+    <t>Shaniek</t>
+  </si>
+  <si>
+    <t>Kellie</t>
   </si>
   <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -190,10 +190,10 @@
     <t>male</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>13.33466479435452</v>
+        <v>13.31506030987625</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>13.28508527389088</v>
+        <v>13.130384389367</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.341848052842526</v>
+        <v>8.498278792419898</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -696,10 +696,10 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.243276706149189</v>
+        <v>8.355697465183056</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>8.088597951143703</v>
+        <v>8.134258835778642</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>5.495565970904949</v>
+        <v>5.448119842755066</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -783,10 +783,10 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>5.313043414706029</v>
+        <v>5.219888263802211</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -812,10 +812,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>5.270427976346927</v>
+        <v>5.11084791097563</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -841,10 +841,10 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4.427089860512693</v>
+        <v>4.296441911182961</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -870,10 +870,10 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>4.1449432509138</v>
+        <v>4.1523214256927</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -899,10 +899,10 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>2.219960194385904</v>
+        <v>2.11461190719625</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.256578053837044</v>
+        <v>1.433139721461116</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -957,10 +957,10 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>14.28972879330137</v>
+        <v>14.05975573019277</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>13.42737676672315</v>
+        <v>13.41550138134623</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>8.447915419544929</v>
+        <v>8.181554504685575</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.374783189707426</v>
+        <v>7.30177575321389</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1073,10 +1073,10 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.318117057861989</v>
+        <v>6.131829617003306</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1102,10 +1102,10 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.269575784930271</v>
+        <v>6.099594868436506</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.377829192037456</v>
+        <v>5.341581989200936</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>5.220260424381992</v>
+        <v>5.208368924262405</v>
       </c>
       <c r="H21" t="s">
         <v>60</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,10 +1189,10 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.0041670821604</v>
+        <v>5.005040994217331</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.086411040790361</v>
+        <v>3.29376936484773</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.224224424130261</v>
+        <v>1.454546036457973</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.3847272879396543</v>
+        <v>0.1921100033886667</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/_static/global/rankrankings/workers_rank_mat.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat.xlsx
@@ -43,24 +43,24 @@
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
+    <t>60b1742bce2b39e0f1d19a1a</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60b1742bce2b39e0f1d19a1a</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>60b7cd4be2d4cc6bb252e016</t>
+  </si>
+  <si>
     <t>5ff3974450a7199965624df7</t>
   </si>
   <si>
-    <t>60b7cd4be2d4cc6bb252e016</t>
-  </si>
-  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
@@ -94,45 +94,45 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
+    <t>5e58b3e415b8d40b5e1dabf1</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5e58b3e415b8d40b5e1dabf1</t>
-  </si>
-  <si>
     <t>Ankai</t>
   </si>
   <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
     <t>Maggie</t>
   </si>
   <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t>Anh</t>
   </si>
   <si>
-    <t>Chris</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
@@ -166,22 +166,22 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Sergio</t>
   </si>
   <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Josue</t>
   </si>
   <si>
+    <t>Cristian</t>
+  </si>
+  <si>
     <t>Carlos</t>
-  </si>
-  <si>
-    <t>Cristian</t>
   </si>
   <si>
     <t>male</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>14.36489732955242</v>
+        <v>14.39815288238974</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>13.45093157762697</v>
+        <v>13.47099616876117</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>13.24590183972602</v>
+        <v>13.17858138422446</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>13.16029971904301</v>
+        <v>13.01112575673547</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>12.247818214573</v>
+        <v>12.3482248776141</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>10.30328183410595</v>
+        <v>10.34214312864992</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>10.17991156201473</v>
+        <v>10.06224892236708</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>8.424071716781192</v>
+        <v>8.014854919004936</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.018050929083364</v>
+        <v>5.498532721451911</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>2.035815033702857</v>
+        <v>2.228636730085874</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.015739194295643</v>
+        <v>2.15781329499561</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>1.284753493958485</v>
+        <v>1.121832258144104</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>15.04266715042745</v>
+        <v>15.43697013441807</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>11.36325328331444</v>
+        <v>11.09358157116992</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1009,7 +1009,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>10.28192797181401</v>
+        <v>10.23060859044444</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1038,7 +1038,7 @@
         <v>56</v>
       </c>
       <c r="G17">
-        <v>10.16425277708626</v>
+        <v>10.0348221501642</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>9.232871859698882</v>
+        <v>9.495077113351307</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>7.274550005288805</v>
+        <v>7.271537858766404</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1113,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1122,10 +1122,10 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>5.284095815019352</v>
+        <v>5.429885939330042</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1151,10 +1151,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>5.117007198824119</v>
+        <v>5.174776003077755</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1183,7 +1183,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>5.092057689109181</v>
+        <v>5.109387050937287</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
       <c r="G23">
-        <v>4.217062184173634</v>
+        <v>4.066289137297956</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="G24">
-        <v>3.09553860113911</v>
+        <v>3.287022510508467</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1270,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>3.080972562626874</v>
+        <v>3.121599655266171</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>
